--- a/me/1.training_sass/09-exe-button.xlsx
+++ b/me/1.training_sass/09-exe-button.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C1C123-22D7-4748-9259-B19133481CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCE09AA-0343-422B-B0A6-E18C3958F219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="style-01" sheetId="1" r:id="rId1"/>
+    <sheet name="Button 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Button 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>構成</t>
   </si>
@@ -141,15 +142,6 @@
     <t>    &lt;h3&gt;Case 01&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>    &lt;button class="btn btn-red"&gt;Button Red&lt;/button&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;button class="btn btn-blue"&gt;Button Blue&lt;/button&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;button class="btn btn-yellow"&gt;Button Yellow&lt;/button&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
@@ -199,6 +191,189 @@
   </si>
   <si>
     <t>style</t>
+  </si>
+  <si>
+    <t>style-02.scss</t>
+  </si>
+  <si>
+    <r>
+      <t>    &lt;button class="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> btn-red"&gt;Button Red&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    &lt;button class="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> btn-blue"&gt;Button Blue&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    &lt;button class="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> btn-yellow"&gt;Button Yellow&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <r>
+      <t>        @</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> %btn;</t>
+    </r>
+  </si>
+  <si>
+    <t>    &lt;link rel="stylesheet" type="text/css" href="style/style-02.css"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;h3&gt;Case 02&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;button class="btn-red"&gt;Button Red&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;button class="btn-blue"&gt;Button Blue&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;button class="btn-yellow"&gt;Button Yellow&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>Không có class btn ở phía trước</t>
+  </si>
+  <si>
+    <t>Có class btn ở phía trước</t>
+  </si>
+  <si>
+    <t>Dùng extend để kế thừa những phần định dạng chung</t>
+  </si>
+  <si>
+    <t>style-02.css</t>
+  </si>
+  <si>
+    <t>.btn-red, .btn-blue, .btn-yellow {</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>btn {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phần định dạng không dùng đến </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nên ko cần sinh ra btn ở phần định dạng css</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -388,6 +563,161 @@
         <a:xfrm>
           <a:off x="609600" y="15621000"/>
           <a:ext cx="6771428" cy="2095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9C4799-A17E-5BBE-973A-AE02714D04C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="9324975"/>
+          <a:ext cx="3705225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD09611-1E4F-CE98-1DF5-EB7FDEE26138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="3019425"/>
+          <a:ext cx="733425" cy="3343275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56305</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>114024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF57610-4F72-E067-CCCF-06CA20CBFA0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16192500"/>
+          <a:ext cx="6761905" cy="2209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -662,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I82"/>
+  <dimension ref="A2:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +1036,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" t="s">
@@ -1068,7 +1398,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1077,9 +1407,9 @@
       <c r="G48" s="10"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1087,10 +1417,13 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J49" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -1099,9 +1432,9 @@
       <c r="G50" s="10"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -1110,9 +1443,9 @@
       <c r="G51" s="10"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1121,9 +1454,9 @@
       <c r="G52" s="10"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -1132,12 +1465,12 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
@@ -1148,50 +1481,50 @@
       <c r="G56" s="2"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="D58" t="s">
         <v>5</v>
       </c>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="F60" t="s">
         <v>4</v>
       </c>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="G61" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -1204,7 +1537,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1217,7 +1550,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -1225,7 +1558,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -1233,7 +1566,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -1241,7 +1574,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -1249,7 +1582,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -1263,7 +1596,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -1271,7 +1604,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -1285,7 +1618,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -1293,7 +1626,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -1307,7 +1640,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -1315,7 +1648,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -1323,7 +1656,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1331,4 +1664,705 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427EABC7-27E5-4363-8726-A124D2037C8C}">
+  <dimension ref="A2:J85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="G8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="5"/>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="5"/>
+      <c r="H34" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="5"/>
+      <c r="J53" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="G64" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="F65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.training_sass/09-exe-button.xlsx
+++ b/me/1.training_sass/09-exe-button.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCE09AA-0343-422B-B0A6-E18C3958F219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247E06C-43A3-4EB8-99A8-C3D7AF3805A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Button 1" sheetId="1" r:id="rId1"/>
     <sheet name="Button 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Button 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="116">
   <si>
     <t>構成</t>
   </si>
@@ -373,6 +374,201 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> nên ko cần sinh ra btn ở phần định dạng css</t>
+    </r>
+  </si>
+  <si>
+    <t>style-03.scss</t>
+  </si>
+  <si>
+    <t>$color-red: #ECB0AD;</t>
+  </si>
+  <si>
+    <t>$color-red-hover: #F16F69;</t>
+  </si>
+  <si>
+    <t>$color-blue: #A9E8F3;</t>
+  </si>
+  <si>
+    <t>$color-blue-hover: #4EDAF3;</t>
+  </si>
+  <si>
+    <t>$color-yellow: #F6F7B0;</t>
+  </si>
+  <si>
+    <t>$color-yellow-hover: #F6F868;</t>
+  </si>
+  <si>
+    <t>%btn {</t>
+  </si>
+  <si>
+    <t>    red     : (</t>
+  </si>
+  <si>
+    <t>        background: $color-red,</t>
+  </si>
+  <si>
+    <t>    ),</t>
+  </si>
+  <si>
+    <t>    blue: (</t>
+  </si>
+  <si>
+    <t>        background: $color-blue,</t>
+  </si>
+  <si>
+    <t>    yellow: (</t>
+  </si>
+  <si>
+    <t>        background: $color-yellow,</t>
+  </si>
+  <si>
+    <t>    )</t>
+  </si>
+  <si>
+    <t>@each $btnName, $colorMap in $color-button {</t>
+  </si>
+  <si>
+    <t>    .btn-#{$btnName} {</t>
+  </si>
+  <si>
+    <t>        @extend %btn;</t>
+  </si>
+  <si>
+    <t>    @each $key, $value in $colorMap {</t>
+  </si>
+  <si>
+    <t>        @if $key == "background" {</t>
+  </si>
+  <si>
+    <t>            .btn-#{$btnName} {</t>
+  </si>
+  <si>
+    <t>                background-color: $value;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            } </t>
+  </si>
+  <si>
+    <t>        } @else {</t>
+  </si>
+  <si>
+    <t>            .btn-#{$btnName}:hover {</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>    &lt;link rel="stylesheet" type="text/css" href="style/style-03.css"&gt;</t>
+  </si>
+  <si>
+    <t>style-03.css</t>
+  </si>
+  <si>
+    <t>  background-color: #ECB0AD; }</t>
+  </si>
+  <si>
+    <t>.btn-red:hover {</t>
+  </si>
+  <si>
+    <t>  background-color: #F16F69; }</t>
+  </si>
+  <si>
+    <t>  background-color: #A9E8F3; }</t>
+  </si>
+  <si>
+    <t>.btn-blue:hover {</t>
+  </si>
+  <si>
+    <t>  background-color: #4EDAF3; }</t>
+  </si>
+  <si>
+    <t>  background-color: #F6F7B0; }</t>
+  </si>
+  <si>
+    <t>.btn-yellow:hover {</t>
+  </si>
+  <si>
+    <t>  background-color: #F6F868; }</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <r>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: $color-red-hover,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   hover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: $color-yellow-hover</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   hover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: $color-blue-hover</t>
     </r>
   </si>
 </sst>
@@ -496,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -508,6 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,6 +921,214 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>275276</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>37857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D88276C-D23A-DC81-FACC-EB4EF2437FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22669500"/>
+          <a:ext cx="7590476" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A91AF91-597F-A8ED-A287-787FB090BFAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="6677025"/>
+          <a:ext cx="3562350" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE09870-A469-F4BA-BA54-E70E33B9BC0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1181100" y="7448550"/>
+          <a:ext cx="3705225" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3537382-B107-371E-A306-A9298AEB0812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1228725" y="7419975"/>
+          <a:ext cx="3514725" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1670,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427EABC7-27E5-4363-8726-A124D2037C8C}">
   <dimension ref="A2:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,4 +2770,1053 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9122774-25E5-455B-B9E1-3BC12BC83741}">
+  <dimension ref="A2:J121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="G10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="5"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="5"/>
+      <c r="I39" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="5"/>
+      <c r="J80" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="E89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="G91" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" s="10"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="9"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>